--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146060.162492046</v>
+        <v>-148041.079072471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553594</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13360779.02453448</v>
+        <v>13369228.22944824</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>310.7998332191153</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>210.4036452721431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.357987380643406</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>113.2870337730225</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>14.01032806733645</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14.87491045352385</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3.932784358881075</v>
+        <v>47.14167849255917</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>228.4664974344479</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>212.8719871951473</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>132.9971948932743</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>111.0770101458546</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>85.1622926248739</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532035</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>8.037128559182674</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>276.7756072553685</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.3707081222052</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>43.70733080350584</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>29.32201570294584</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>101.2259509199835</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>146.2787299119464</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.843519215192</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>106.5613625662761</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758609</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274009</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051985</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262912</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014412</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533806</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700712</v>
+        <v>112.0435644700703</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965477</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801251</v>
+        <v>91.23070601801159</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437459</v>
+        <v>90.21779139437366</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897857</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>55.21598883571448</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>54.76109577523533</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550457</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298326</v>
+        <v>166.3443044298317</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700207</v>
+        <v>231.0340957700197</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952713</v>
+        <v>196.9343866952704</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080343</v>
+        <v>231.3197417080334</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604805</v>
+        <v>170.5063987604796</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.5655311143585</v>
+        <v>91.07146653911211</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169287</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738.858660051663</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.896143111252</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.630444504501</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.630444504501</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y2" t="n">
-        <v>1738.858660051663</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587812</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587812</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>196.6941021971136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>196.6941021971136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>60.36519129576183</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587812</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587812</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587812</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587812</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.020605349451</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.058088409039</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>878.7923898022884</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>493.0041372040442</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>82.01823241443662</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>68.09482835302754</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2505.946441258126</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2252.184655896217</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1921.121768552647</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.620445413572</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.020265289186</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>348.020265289186</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>348.020265289186</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>348.020265289186</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>576.0098161872033</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X7" t="n">
-        <v>348.020265289186</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.020265289186</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.703156598057</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.703156598057</v>
+        <v>452.1066017194595</v>
       </c>
       <c r="D8" t="n">
-        <v>1483.703156598057</v>
+        <v>452.1066017194595</v>
       </c>
       <c r="E8" t="n">
-        <v>1097.914903999813</v>
+        <v>452.1066017194595</v>
       </c>
       <c r="F8" t="n">
-        <v>686.9289992102051</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>268.965191108392</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629043</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349974</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="D10" t="n">
-        <v>188.2835827226617</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="E10" t="n">
-        <v>188.2835827226617</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262959</v>
       </c>
       <c r="U13" t="n">
-        <v>1412.893752754999</v>
+        <v>786.0822064765168</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.893752754999</v>
+        <v>531.39771827063</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.476582718039</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>895.4870318200215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.722855443786</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.722855443786</v>
       </c>
       <c r="U16" t="n">
-        <v>1019.424940013486</v>
+        <v>1379.722855443786</v>
       </c>
       <c r="V16" t="n">
-        <v>764.7404518075996</v>
+        <v>1125.038367237899</v>
       </c>
       <c r="W16" t="n">
-        <v>475.3232817706389</v>
+        <v>835.6211972009382</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>835.6211972009382</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>835.6211972009382</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>397.7517393246783</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1454.767451564462</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1230.982036353967</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>941.8533975675257</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>687.1689093616388</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W19" t="n">
-        <v>397.7517393246783</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X19" t="n">
-        <v>397.7517393246783</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="Y19" t="n">
-        <v>397.7517393246783</v>
+        <v>622.94692973335</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F21" t="n">
         <v>358.2718071316295</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5865,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.9005583181189</v>
+        <v>879.5496456007324</v>
       </c>
       <c r="C22" t="n">
-        <v>441.9005583181189</v>
+        <v>710.6134626728256</v>
       </c>
       <c r="D22" t="n">
-        <v>441.9005583181189</v>
+        <v>710.6134626728256</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1396.667835285192</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1107.53919649875</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550795</v>
+        <v>1107.53919649875</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181189</v>
+        <v>1107.53919649875</v>
       </c>
       <c r="X22" t="n">
-        <v>441.9005583181189</v>
+        <v>879.5496456007324</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.9005583181189</v>
+        <v>879.5496456007324</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.9733843006355</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>244.9733843006355</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>244.9733843006355</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>244.9733843006355</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>244.9733843006355</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811262</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441656</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>465.7659634441656</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.9733843006355</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636264</v>
+        <v>1196.088769018227</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1503.408902298188</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1833.27152996222</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>2112.811595180916</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799355</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T28" t="n">
-        <v>1191.358520507522</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U28" t="n">
-        <v>902.22988172108</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V28" t="n">
-        <v>902.22988172108</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W28" t="n">
-        <v>612.8127116841194</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X28" t="n">
-        <v>612.8127116841194</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823801</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514119</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515106</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.70982261914</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643339</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899145</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720785</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,58 +6516,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525777</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714507</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101995</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.806365104744</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.271807131629</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358143</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675021</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126491</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571631</v>
+        <v>412.6079778147073</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636291</v>
+        <v>659.3731057211706</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643593</v>
+        <v>966.6932390011314</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307628</v>
+        <v>1296.555866665163</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526327</v>
+        <v>1966.019627967822</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963121</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
         <v>2288.75278438369</v>
@@ -6576,10 +6576,10 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043132</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
         <v>1363.4068948376</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>449.4474457210669</v>
+        <v>638.460363022714</v>
       </c>
       <c r="C31" t="n">
-        <v>336.2721280745304</v>
+        <v>525.285045376178</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2721280745304</v>
+        <v>430.9292712452136</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1198997735077</v>
+        <v>338.7770429441918</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569677</v>
+        <v>247.6479607276526</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>247.6479607276526</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569672</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933509</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667524</v>
+        <v>671.4509053667515</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962075</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286027</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353696</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021651</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056079</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899275</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096198</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167074</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356662002</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.336733737487</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818955</v>
+        <v>902.6804289818974</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652485</v>
+        <v>730.4517433652514</v>
       </c>
       <c r="Y31" t="n">
-        <v>575.3350452699362</v>
+        <v>638.460363022714</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6838,22 +6838,22 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010319</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7081,25 +7081,25 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859416</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586352</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333966</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>668.684674853563</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279361</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133949</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659913</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.671796620812</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208019</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987295982</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966207909</v>
+        <v>159.0121003135296</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>201.0750597737035</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338747</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.8836814244206</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>9.461745143208816</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4612720597321</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.2134791800974</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>117.1119469436233</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.3216101384058</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>20.21483855143124</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>114.9861984921131</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.89407122271649</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533797</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896557</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348209</v>
+        <v>111.29031183482</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897938</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.815865609179582</v>
+        <v>72.3099301844251</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1167617.736428483</v>
+        <v>1167617.736428484</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1163342.940521605</v>
+        <v>1177974.229671724</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524997</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
+        <v>273720.3418163964</v>
+      </c>
+      <c r="F2" t="n">
         <v>273720.3418163963</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>273720.3418163963</v>
+      </c>
+      <c r="H2" t="n">
         <v>273720.3418163962</v>
       </c>
-      <c r="G2" t="n">
-        <v>273720.3418163964</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>273720.3418163963</v>
-      </c>
-      <c r="I2" t="n">
-        <v>273720.3418163962</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416895</v>
+        <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="N2" t="n">
-        <v>287364.6194524988</v>
-      </c>
       <c r="O2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524991</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925939</v>
+        <v>176423.2191925917</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028474</v>
+        <v>44162.60530284607</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008641</v>
+        <v>10342.90680086767</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755738</v>
+        <v>44162.60530284607</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230244</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649849</v>
+        <v>47468.16806649911</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
         <v>51722.33279362279</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362282</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
+        <v>51722.3327936228</v>
+      </c>
+      <c r="P4" t="n">
         <v>51722.33279362279</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30134.53761950705</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022284</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002536</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559953.1151472807</v>
+        <v>-559953.1151472804</v>
       </c>
       <c r="C6" t="n">
-        <v>30014.76406726381</v>
+        <v>30014.76406726384</v>
       </c>
       <c r="D6" t="n">
-        <v>30014.76406726384</v>
+        <v>30014.76406726378</v>
       </c>
       <c r="E6" t="n">
-        <v>-372730.5661615188</v>
+        <v>-372828.0252874907</v>
       </c>
       <c r="F6" t="n">
-        <v>152429.4703153772</v>
+        <v>152332.0111894052</v>
       </c>
       <c r="G6" t="n">
-        <v>152429.4703153775</v>
+        <v>152332.0111894052</v>
       </c>
       <c r="H6" t="n">
-        <v>152429.4703153773</v>
+        <v>152332.0111894049</v>
       </c>
       <c r="I6" t="n">
-        <v>152429.4703153773</v>
+        <v>152332.0111894052</v>
       </c>
       <c r="J6" t="n">
-        <v>-23993.74887721644</v>
+        <v>-24091.20800318666</v>
       </c>
       <c r="K6" t="n">
-        <v>96516.51424212077</v>
+        <v>96498.02050418689</v>
       </c>
       <c r="L6" t="n">
-        <v>127584.2740379867</v>
+        <v>127584.274037983</v>
       </c>
       <c r="M6" t="n">
-        <v>3126.165605013841</v>
+        <v>3126.165605013812</v>
       </c>
       <c r="N6" t="n">
-        <v>137927.1808388506</v>
+        <v>137927.1808388511</v>
       </c>
       <c r="O6" t="n">
-        <v>137927.1808388509</v>
+        <v>137927.1808388511</v>
       </c>
       <c r="P6" t="n">
-        <v>-44245.01238572106</v>
+        <v>93764.57553600492</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541045</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,10 +26805,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108399</v>
+        <v>12.92863350108307</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750859</v>
+        <v>55.2032566285576</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>-2.615029277269751e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.842170943040401e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.146304504262905e-12</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>71.93400844436525</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.4724004695683</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>38.84197180789359</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>138.8506095508055</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9124446970207</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>201.5734099041339</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>282.5902139777099</v>
+        <v>239.3813198440319</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>178.4095483072636</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>111.0507855692099</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.42385312965698</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>45.09387869594052</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855758</v>
       </c>
     </row>
     <row r="32">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443634</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444963</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176658</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961219</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041509</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304467</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565549</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927217</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540914</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947017</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647515</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446488</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104688</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562951</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354906</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354112</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386734</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127096</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215742</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622997</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847359004</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724869</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813486</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855548</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458567</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710968</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095123</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677482</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361526</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680337</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081172</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990352</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298653</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822388</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557943</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196135</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171331</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263762</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065643</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469082</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235698</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337704</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336914</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892279</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351856</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006117992</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502124</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>526.9295015768356</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523272</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686883</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415094</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303351</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109099</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221147</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081149</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.15460709515</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109148</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502067</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970347653</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953164</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005193</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560263</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504686</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980152</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411103</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523173</v>
+        <v>366.1055152450537</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209244</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
-        <v>10.7373859568692</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.71102679412292</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584681</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084864</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075304</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341615</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491606</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403584</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043206</v>
+        <v>94.4289566004321</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>137.947628233053</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
